--- a/biology/Zoologie/Bothrops_lanceolatus/Bothrops_lanceolatus.xlsx
+++ b/biology/Zoologie/Bothrops_lanceolatus/Bothrops_lanceolatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trigonocéphale, Fer de lance de la Martinique
-Bothrops lanceolatus est une espèce de serpents venimeux de la famille des Viperidae et de la sous-famille des Crotalinae originaire de la Martinique[1]. En français il peut être appelé Trigonocéphale ou Fer de lance de la Martinique, en créole bèt-long ou kravat.
+Bothrops lanceolatus est une espèce de serpents venimeux de la famille des Viperidae et de la sous-famille des Crotalinae originaire de la Martinique. En français il peut être appelé Trigonocéphale ou Fer de lance de la Martinique, en créole bèt-long ou kravat.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la Martinique[1]. Un cousin de Bothrops lanceolatus vit également dans l'île voisine de la Martinique : à Sainte-Lucie, il s'agit de Bothrops caribbaeus. Son arrivée sur l'île de la Martinique s'est faite grâce à une dispersion trans-océanique depuis l’Amérique du Sud vers Sainte-Lucie et de la même manière vers la Martinique, il y aurait entre 3 et 6,5 millions d’années. Sa présence est citée dans l'ouvrage du Père Labat : Voyage aux Isles, chronique aventureuse des Caraïbes (1693-1705). Également dans "l'anonyme de Carpentras" : Un flibustier Français dans la mer des Antilles (1618-1620) : relation d'un voyage infortuné fait aux Indes occidentales par le capitaine Fleury, avec la description de quelques îles qu'on y rencontre, recueillie par l'un de ceux de la compagnie qui fit le voyage. Ces ouvrages attestent de la présence du reptile dans l'île déjà au début et dans le courant du XVIIe siècle. Contrairement à certaines rumeurs, ce serpent n'a pas été introduit[2], ni par les Amérindiens, ni par les colons pour empêcher l'évasion des esclaves[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la Martinique. Un cousin de Bothrops lanceolatus vit également dans l'île voisine de la Martinique : à Sainte-Lucie, il s'agit de Bothrops caribbaeus. Son arrivée sur l'île de la Martinique s'est faite grâce à une dispersion trans-océanique depuis l’Amérique du Sud vers Sainte-Lucie et de la même manière vers la Martinique, il y aurait entre 3 et 6,5 millions d’années. Sa présence est citée dans l'ouvrage du Père Labat : Voyage aux Isles, chronique aventureuse des Caraïbes (1693-1705). Également dans "l'anonyme de Carpentras" : Un flibustier Français dans la mer des Antilles (1618-1620) : relation d'un voyage infortuné fait aux Indes occidentales par le capitaine Fleury, avec la description de quelques îles qu'on y rencontre, recueillie par l'un de ceux de la compagnie qui fit le voyage. Ces ouvrages attestent de la présence du reptile dans l'île déjà au début et dans le courant du XVIIe siècle. Contrairement à certaines rumeurs, ce serpent n'a pas été introduit, ni par les Amérindiens, ni par les colons pour empêcher l'évasion des esclaves.
 Des travaux scientifiques récents, visant notamment à savoir s'il fallait ou non classer l'espèce en «espèce menacée », ont permis de dresser une carte des habitats favorables au Bothrops lanceolatus. Il en ressort que la répartition de la population en trigonocéphales semble morcelée entre le nord/centre de l'île et le sud. Les populations du sud étant très morcelées et celles du nord semblent quant à elles, beaucoup plus homogènes. Les forêts humides, la fraîcheur, les points d'eau et les altitudes supérieures à 200 m, voire à 400 m semblent des zones d'habitat plus favorables.
 Ce serpent est donc présent du nord au sud de la Martinique. Concernant son habitat, il privilégie les endroits calmes et retirés comme la forêt du nord de l'île ou les mornes boisés (collines), du sud et également les plantations de canne à sucre; parfois à proximité des habitations où il peut trouver des proies telles que les rats en abondance. Les lieux d'anthropisation clairsemés ne gêneront donc pas sa présence. Il est faux de croire que ce serpent est devenu rare en Martinique, même après une grande campagne d'éradication dans les années 1960 à 2002. Toutefois, il pourrait faire l'objet d'un classement comme espèce à protéger (classement UICN : Union internationale pour la conservation de la nature). Il est néanmoins régulièrement détruit par les habitants qui peuvent croiser par inadvertance son chemin (champ, jardin, chemin, etc.), ce qui prouve sa relative abondance.
 </t>
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un serpent venimeux qui fréquente essentiellement les forêts et les plantations où il chasse ses proies habituelles, oiseaux, petits rongeurs, chauves-souris et batraciens. Ce serpent est essentiellement un chasseur nocturne, son venin agit par effet de coagulation disséminée du sang dans les vaisseaux (venin hémotoxique), et provoque des thromboses artériolaires et des désordres myocardiques et encéphaliques graves. Sa coloration est variable, allant du jaune, jaune sale au marron avec des taches à dominante de marron-noir. Sa tête triangulaire (d'où son nom : trigonocéphale ou fer de lance), est facilement reconnaissable. Présence d'une bande latérale noire en arrière de l'œil, étendue sur toute la longueur de la tête. Rappelons au passage que les serpents sont sourds... Ils ne peuvent pas entendre, par contre ils détecteront les vibrations émises par les pas sur le sol.
 Le Trigonocéphale peut être dangereux pour l'homme en cas de morsure (de l'avis de spécialistes en fabrication de sérum antivenimeux, il est considéré comme relativement agressif), si aucun soin approprié n'est apporté. Fort heureusement peu d'accidents sont à déplorer en Martinique. De plus, un sérum mono-spécifique a été créé spécialement pour la Martinique par l'Institut Pasteur en France. En cas de morsure : rester le plus calme possible, faire allonger la victime, appeler le 112 (numéro des urgences); après avoir répondu à ses questions, votre interlocuteur décidera des meilleures façons d'évacuer la victime vers un centre hospitalier de Fort de France (par voie terrestre ou par hélicoptère).
@@ -579,7 +595,9 @@
           <t>Tentative de réduction de la population grâce à la mangouste</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Fin XIXe siècle , dans les années 1890, la mangouste a été importée des Indes pour combattre ce serpent. Or ces deux animaux ne sont pas actifs durant les mêmes périodes (le trigonocéphale a une activité principalement nocturne et la mangouste principalement diurne), donc, en mal de prédation, la mangouste s'est rabattue sur les poules et ses œufs. Toutes sortes d'œufs en général, au point que nombre d'espèce d'oiseaux, comme les perroquets, ont disparu de l'île (d'autres invoquent la chasse qui serait la cause de la disparition des perroquets, chasse également citée dans l'ouvrage du père Labat).
 Historique des destructions de trigonocéphales
@@ -613,7 +631,9 @@
           <t>Drapeau aux serpents</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce drapeau orné de trigonocéphales, trouvant ses origines dans la marine du XVIIIe siècle, est le symbole non officiel le plus largement utilisé pour représenter la Martinique entre la fin du XXe siècle et le début du XXIe siècle. Ses références historiques étant critiquées, il est remplacé en 2019 par le président du Conseil exécutif de Martinique par le drapeau intitulé « Ipséité», puis en 2022 par la Collectivité territoriale par le drapeau « rouge-vert-noir».
 </t>
@@ -644,7 +664,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Bonnaterre, 1790 : Ophiologie in Tableau encyclopédique et méthodique des trois règnes de la nature, p. 1-76 (texte intégral).
 Lacépède, 1789 : Histoire Naturelle des Quadrupèdes Ovipares et des Serpens, vol. 2, lmprimerie du Roi, Hôtel de Thou, Paris, p. 1-671.</t>
